--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ror2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.01838633333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.055159</v>
+      </c>
+      <c r="I2">
+        <v>0.003339500866342531</v>
+      </c>
+      <c r="J2">
+        <v>0.003339500866342531</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>5.449420333333333</v>
-      </c>
-      <c r="H2">
-        <v>16.348261</v>
-      </c>
-      <c r="I2">
-        <v>0.8985142489564721</v>
-      </c>
-      <c r="J2">
-        <v>0.8985142489564723</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.028814</v>
+        <v>2.294804333333333</v>
       </c>
       <c r="N2">
-        <v>0.08644199999999999</v>
+        <v>6.884412999999999</v>
       </c>
       <c r="O2">
-        <v>0.00940489724430048</v>
+        <v>0.6595351916216082</v>
       </c>
       <c r="P2">
-        <v>0.009404897244300481</v>
+        <v>0.6595351916216082</v>
       </c>
       <c r="Q2">
-        <v>0.1570195974846667</v>
+        <v>0.04219303740744444</v>
       </c>
       <c r="R2">
-        <v>1.413176377362</v>
+        <v>0.379737336667</v>
       </c>
       <c r="S2">
-        <v>0.008450434183975441</v>
+        <v>0.002202518343803748</v>
       </c>
       <c r="T2">
-        <v>0.008450434183975442</v>
+        <v>0.002202518343803748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.449420333333333</v>
+        <v>0.01838633333333333</v>
       </c>
       <c r="H3">
-        <v>16.348261</v>
+        <v>0.055159</v>
       </c>
       <c r="I3">
-        <v>0.8985142489564721</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="J3">
-        <v>0.8985142489564723</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,39 +614,39 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.294804333333333</v>
+        <v>1.184622333333333</v>
       </c>
       <c r="N3">
-        <v>6.884412999999999</v>
+        <v>3.553867</v>
       </c>
       <c r="O3">
-        <v>0.7490247432073112</v>
+        <v>0.3404648083783919</v>
       </c>
       <c r="P3">
-        <v>0.7490247432073114</v>
+        <v>0.3404648083783919</v>
       </c>
       <c r="Q3">
-        <v>12.50535339508811</v>
+        <v>0.02178086109477778</v>
       </c>
       <c r="R3">
-        <v>112.548180555793</v>
+        <v>0.196027749853</v>
       </c>
       <c r="S3">
-        <v>0.6730094045927316</v>
+        <v>0.001136982522538784</v>
       </c>
       <c r="T3">
-        <v>0.6730094045927318</v>
+        <v>0.001136982522538783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>16.348261</v>
       </c>
       <c r="I4">
-        <v>0.8985142489564721</v>
+        <v>0.9897755900704113</v>
       </c>
       <c r="J4">
-        <v>0.8985142489564723</v>
+        <v>0.9897755900704112</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7401046666666667</v>
+        <v>2.294804333333333</v>
       </c>
       <c r="N4">
-        <v>2.220314</v>
+        <v>6.884412999999999</v>
       </c>
       <c r="O4">
-        <v>0.2415703595483883</v>
+        <v>0.6595351916216082</v>
       </c>
       <c r="P4">
-        <v>0.2415703595483883</v>
+        <v>0.6595351916216082</v>
       </c>
       <c r="Q4">
-        <v>4.033141419328222</v>
+        <v>12.50535339508811</v>
       </c>
       <c r="R4">
-        <v>36.298272773954</v>
+        <v>112.548180555793</v>
       </c>
       <c r="S4">
-        <v>0.217054410179765</v>
+        <v>0.652791833459479</v>
       </c>
       <c r="T4">
-        <v>0.2170544101797651</v>
+        <v>0.652791833459479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,93 +705,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6155033333333333</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H5">
-        <v>1.84651</v>
+        <v>16.348261</v>
       </c>
       <c r="I5">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704113</v>
       </c>
       <c r="J5">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704112</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.028814</v>
+        <v>1.184622333333333</v>
       </c>
       <c r="N5">
-        <v>0.08644199999999999</v>
+        <v>3.553867</v>
       </c>
       <c r="O5">
-        <v>0.00940489724430048</v>
+        <v>0.3404648083783919</v>
       </c>
       <c r="P5">
-        <v>0.009404897244300481</v>
+        <v>0.3404648083783919</v>
       </c>
       <c r="Q5">
-        <v>0.01773511304666666</v>
+        <v>6.455505030587444</v>
       </c>
       <c r="R5">
-        <v>0.15961601742</v>
+        <v>58.099545275287</v>
       </c>
       <c r="S5">
-        <v>0.0009544630603250394</v>
+        <v>0.3369837566109323</v>
       </c>
       <c r="T5">
-        <v>0.0009544630603250397</v>
+        <v>0.3369837566109323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6155033333333333</v>
+        <v>0.03790633333333333</v>
       </c>
       <c r="H6">
-        <v>1.84651</v>
+        <v>0.113719</v>
       </c>
       <c r="I6">
-        <v>0.1014857510435278</v>
+        <v>0.006884909063246366</v>
       </c>
       <c r="J6">
-        <v>0.1014857510435278</v>
+        <v>0.006884909063246365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,54 +806,54 @@
         <v>6.884412999999999</v>
       </c>
       <c r="O6">
-        <v>0.7490247432073112</v>
+        <v>0.6595351916216082</v>
       </c>
       <c r="P6">
-        <v>0.7490247432073114</v>
+        <v>0.6595351916216082</v>
       </c>
       <c r="Q6">
-        <v>1.412459716514444</v>
+        <v>0.0869876179941111</v>
       </c>
       <c r="R6">
-        <v>12.71213744863</v>
+        <v>0.782888561947</v>
       </c>
       <c r="S6">
-        <v>0.07601533861457954</v>
+        <v>0.00454083981832554</v>
       </c>
       <c r="T6">
-        <v>0.07601533861457957</v>
+        <v>0.004540839818325538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.6155033333333333</v>
+        <v>0.03790633333333333</v>
       </c>
       <c r="H7">
-        <v>1.84651</v>
+        <v>0.113719</v>
       </c>
       <c r="I7">
-        <v>0.1014857510435278</v>
+        <v>0.006884909063246366</v>
       </c>
       <c r="J7">
-        <v>0.1014857510435278</v>
+        <v>0.006884909063246365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7401046666666667</v>
+        <v>1.184622333333333</v>
       </c>
       <c r="N7">
-        <v>2.220314</v>
+        <v>3.553867</v>
       </c>
       <c r="O7">
-        <v>0.2415703595483883</v>
+        <v>0.3404648083783919</v>
       </c>
       <c r="P7">
-        <v>0.2415703595483883</v>
+        <v>0.3404648083783919</v>
       </c>
       <c r="Q7">
-        <v>0.4555368893488889</v>
+        <v>0.04490468904144444</v>
       </c>
       <c r="R7">
-        <v>4.09983200414</v>
+        <v>0.404142201373</v>
       </c>
       <c r="S7">
-        <v>0.02451594936862323</v>
+        <v>0.002344069244920828</v>
       </c>
       <c r="T7">
-        <v>0.02451594936862324</v>
+        <v>0.002344069244920827</v>
       </c>
     </row>
   </sheetData>
